--- a/BOM/mosaicHAT_BOM.xlsx
+++ b/BOM/mosaicHAT_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMA0162986\Documents\Github_res\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMA0162986\Documents\academics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D19FC85-7F6D-4628-AEE3-9FAE8CAD44A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{740A213F-6E56-4381-9DF0-3CEED5EA947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24AB02FD-6E7B-47AF-9076-A64B416D1A30}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Reference</t>
   </si>
@@ -222,9 +221,6 @@
     <t>SESD0402X1BN-0010-098CT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/SESD0402X1BN-0010-098/SESD0402X1BN-0010-098CT-ND/5233522</t>
-  </si>
-  <si>
     <t>MBRX120LF-TPMSCT-ND</t>
   </si>
   <si>
@@ -316,6 +312,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/w%C3%BCrth-elektronik/61300211121/732-5315-ND/4846823</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TLMB1100-GS08/1681291</t>
+  </si>
+  <si>
+    <t>751-1156-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/SESD0402X1BN-0010-098/5233522</t>
   </si>
 </sst>
 </file>
@@ -744,7 +749,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -789,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
@@ -809,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -832,10 +837,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -849,13 +854,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -875,7 +880,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -952,10 +957,10 @@
         <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -972,10 +977,10 @@
         <v>61300411121</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -992,10 +997,10 @@
         <v>61300611121</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1012,10 +1017,10 @@
         <v>61300211121</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1032,10 +1037,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1052,10 +1057,10 @@
         <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1069,13 +1074,13 @@
         <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1092,10 +1097,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1112,10 +1117,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1132,10 +1137,10 @@
         <v>51</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1152,10 +1157,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1163,24 +1168,23 @@
     <hyperlink ref="F9" r:id="rId1" xr:uid="{F8F110FE-62D1-4C26-8A2D-1CE5F74F8532}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{E1F5FDF5-A569-4B85-AA7D-0E309FB09FB3}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{F150C78E-524E-48A9-BC0F-32A184D87C90}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{7BFD28E5-D267-48B5-8582-FC717F5EAAAA}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{4C652E3D-6684-4FBA-83E0-29E20987968C}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{E272950E-6D29-45DC-B783-C5FFA7E2C028}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{6877124C-D168-42CC-93C3-8F91337C3FAD}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{EFAC6F6D-0867-4C5F-B138-15B9F4090B70}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{7300EB43-CB74-49DD-AF93-87854B698698}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{32F3FC61-D4CF-4181-95F2-D00CEE57A9E4}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{864071B6-9AC5-4A0A-A33E-85D7034F5B20}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{ECA22AC4-2D49-4622-83F1-E00A117422F6}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{A09010AA-C91E-467D-8A07-CE8CE6AE76E2}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{3D4E3AF4-9B16-4309-A6F2-EB162979167E}"/>
-    <hyperlink ref="F19" r:id="rId15" xr:uid="{AD2FCA8A-2256-4A01-80DF-3729DD069FB8}"/>
-    <hyperlink ref="F20" r:id="rId16" xr:uid="{71763C76-C88A-4636-9945-A8FC724A8220}"/>
-    <hyperlink ref="F11" r:id="rId17" xr:uid="{ED21C8F5-4651-4E19-BD60-FC1825A03EB1}"/>
-    <hyperlink ref="F12" r:id="rId18" xr:uid="{BF62463B-8E71-457F-B045-02CB4BFAA627}"/>
-    <hyperlink ref="F13" r:id="rId19" xr:uid="{9B7F2173-8B5C-42DD-A0B8-3ED1580ABF0B}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{E272950E-6D29-45DC-B783-C5FFA7E2C028}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{6877124C-D168-42CC-93C3-8F91337C3FAD}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{EFAC6F6D-0867-4C5F-B138-15B9F4090B70}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{7300EB43-CB74-49DD-AF93-87854B698698}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{32F3FC61-D4CF-4181-95F2-D00CEE57A9E4}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{864071B6-9AC5-4A0A-A33E-85D7034F5B20}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{ECA22AC4-2D49-4622-83F1-E00A117422F6}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{A09010AA-C91E-467D-8A07-CE8CE6AE76E2}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{3D4E3AF4-9B16-4309-A6F2-EB162979167E}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{AD2FCA8A-2256-4A01-80DF-3729DD069FB8}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{71763C76-C88A-4636-9945-A8FC724A8220}"/>
+    <hyperlink ref="F11" r:id="rId15" xr:uid="{ED21C8F5-4651-4E19-BD60-FC1825A03EB1}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{BF62463B-8E71-457F-B045-02CB4BFAA627}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{9B7F2173-8B5C-42DD-A0B8-3ED1580ABF0B}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{4C652E3D-6684-4FBA-83E0-29E20987968C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>